--- a/data/pca/factorExposure/factorExposure_2018-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.001239949353291158</v>
+        <v>-0.003191913073443686</v>
       </c>
       <c r="C2">
-        <v>0.004642984392484329</v>
+        <v>0.03109701802179291</v>
       </c>
       <c r="D2">
-        <v>0.01939427789000702</v>
+        <v>-0.0274620791868828</v>
       </c>
       <c r="E2">
-        <v>-0.04664478199390693</v>
+        <v>-0.01097063776574179</v>
       </c>
       <c r="F2">
-        <v>-0.047572887734467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03388588218597054</v>
+      </c>
+      <c r="G2">
+        <v>-0.001631660559578838</v>
+      </c>
+      <c r="H2">
+        <v>0.01803248574318808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06772132994691925</v>
+        <v>-0.05866675348986178</v>
       </c>
       <c r="C3">
-        <v>-0.00367325095245401</v>
+        <v>0.09030603617998895</v>
       </c>
       <c r="D3">
-        <v>-0.02924171510009298</v>
+        <v>-0.01117171415115676</v>
       </c>
       <c r="E3">
-        <v>-0.1821878880904881</v>
+        <v>-0.05874744245097892</v>
       </c>
       <c r="F3">
-        <v>-0.2243393585175539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1102091110515525</v>
+      </c>
+      <c r="G3">
+        <v>-0.04586561177030594</v>
+      </c>
+      <c r="H3">
+        <v>0.05148788055657399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03362280214643399</v>
+        <v>-0.04280391871816923</v>
       </c>
       <c r="C4">
-        <v>-0.01578214120654582</v>
+        <v>0.05827260129264507</v>
       </c>
       <c r="D4">
-        <v>0.03390235205804989</v>
+        <v>-0.02074960178434343</v>
       </c>
       <c r="E4">
-        <v>-0.0045459857494696</v>
+        <v>0.0003034334630354696</v>
       </c>
       <c r="F4">
-        <v>-0.05621758183186432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04349720661235962</v>
+      </c>
+      <c r="G4">
+        <v>-0.03520413408067158</v>
+      </c>
+      <c r="H4">
+        <v>-0.004552276388371059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.05317184600276519</v>
+        <v>-0.02598801025611289</v>
       </c>
       <c r="C6">
-        <v>-0.004660990047450206</v>
+        <v>0.057547695537894</v>
       </c>
       <c r="D6">
-        <v>0.04140072805274457</v>
+        <v>-0.01480304361587465</v>
       </c>
       <c r="E6">
-        <v>-0.006454906864493435</v>
+        <v>0.0034866010792861</v>
       </c>
       <c r="F6">
-        <v>-0.04016053699515102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01741636866903825</v>
+      </c>
+      <c r="G6">
+        <v>-0.0174414791389418</v>
+      </c>
+      <c r="H6">
+        <v>0.0004526883473955187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02497852157434958</v>
+        <v>-0.008367761611060511</v>
       </c>
       <c r="C7">
-        <v>-0.07045837549621596</v>
+        <v>0.03043290318898132</v>
       </c>
       <c r="D7">
-        <v>0.003796282016614</v>
+        <v>-0.01210489118352902</v>
       </c>
       <c r="E7">
-        <v>-0.003437594756031798</v>
+        <v>0.01726027560942161</v>
       </c>
       <c r="F7">
-        <v>-0.01318474186331205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0176427296086277</v>
+      </c>
+      <c r="G7">
+        <v>-0.06704932756615413</v>
+      </c>
+      <c r="H7">
+        <v>0.03037243822841808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01419269971253754</v>
+        <v>0.005486992743981311</v>
       </c>
       <c r="C8">
-        <v>-0.01018147070806611</v>
+        <v>0.004799832400956446</v>
       </c>
       <c r="D8">
-        <v>0.02262009219669363</v>
+        <v>-0.001840356545510539</v>
       </c>
       <c r="E8">
-        <v>-0.004589136723475455</v>
+        <v>-0.004150591792321555</v>
       </c>
       <c r="F8">
-        <v>-0.04944862668988349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02672911121996165</v>
+      </c>
+      <c r="G8">
+        <v>-0.02088116386376257</v>
+      </c>
+      <c r="H8">
+        <v>-0.005899043729673216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02538109256991328</v>
+        <v>-0.01948899287109689</v>
       </c>
       <c r="C9">
-        <v>-0.01311305091073468</v>
+        <v>0.03955700009835052</v>
       </c>
       <c r="D9">
-        <v>0.0267782736961086</v>
+        <v>-0.01454784899485273</v>
       </c>
       <c r="E9">
-        <v>-0.03103077632336673</v>
+        <v>0.002621818783940608</v>
       </c>
       <c r="F9">
-        <v>-0.05047806779151961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02843460696524343</v>
+      </c>
+      <c r="G9">
+        <v>-0.02285779266190434</v>
+      </c>
+      <c r="H9">
+        <v>0.0170220730675639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05548433057634317</v>
+        <v>-0.109088321467128</v>
       </c>
       <c r="C10">
-        <v>0.009139445145394366</v>
+        <v>-0.1715390807856479</v>
       </c>
       <c r="D10">
-        <v>-0.1606631298816559</v>
+        <v>0.02073534444161926</v>
       </c>
       <c r="E10">
-        <v>-0.04891570932348255</v>
+        <v>-0.02388232050353832</v>
       </c>
       <c r="F10">
-        <v>0.005440606202475984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01158599362493315</v>
+      </c>
+      <c r="G10">
+        <v>-0.02460806447677067</v>
+      </c>
+      <c r="H10">
+        <v>0.03562392120247532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02640208830570801</v>
+        <v>-0.02350982548083588</v>
       </c>
       <c r="C11">
-        <v>0.002305573716735699</v>
+        <v>0.05139456729574925</v>
       </c>
       <c r="D11">
-        <v>0.04256498591688651</v>
+        <v>-0.0003898693269765682</v>
       </c>
       <c r="E11">
-        <v>0.004461578719861473</v>
+        <v>0.008254072107044359</v>
       </c>
       <c r="F11">
-        <v>-0.02274146380384172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03606780974203526</v>
+      </c>
+      <c r="G11">
+        <v>-0.001739648078924114</v>
+      </c>
+      <c r="H11">
+        <v>0.008956709349486185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03388679778699157</v>
+        <v>-0.02474624930486207</v>
       </c>
       <c r="C12">
-        <v>-0.003462804908358552</v>
+        <v>0.04561546106728823</v>
       </c>
       <c r="D12">
-        <v>0.04005473157516008</v>
+        <v>-0.004703053002067509</v>
       </c>
       <c r="E12">
-        <v>0.01666577878562036</v>
+        <v>0.01232168224893024</v>
       </c>
       <c r="F12">
-        <v>-0.003981795892981405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01500988596733262</v>
+      </c>
+      <c r="G12">
+        <v>-0.01231100333849845</v>
+      </c>
+      <c r="H12">
+        <v>0.007130818377881829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01393718528059475</v>
+        <v>-0.006626707448578708</v>
       </c>
       <c r="C13">
-        <v>0.000986356189421419</v>
+        <v>0.02734231547579827</v>
       </c>
       <c r="D13">
-        <v>0.01130851385226319</v>
+        <v>-0.02324050406221556</v>
       </c>
       <c r="E13">
-        <v>-0.02433923430353648</v>
+        <v>-0.01585170908824087</v>
       </c>
       <c r="F13">
-        <v>-0.05509522891328451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.05046984726528047</v>
+      </c>
+      <c r="G13">
+        <v>-0.01544869254234973</v>
+      </c>
+      <c r="H13">
+        <v>0.007000483539203127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01263848681988272</v>
+        <v>-0.003093316448475504</v>
       </c>
       <c r="C14">
-        <v>-0.01546294636448173</v>
+        <v>0.02045443122729988</v>
       </c>
       <c r="D14">
-        <v>0.007565626360876251</v>
+        <v>-0.007709437209318707</v>
       </c>
       <c r="E14">
-        <v>-0.002615619679998612</v>
+        <v>0.007563798999127107</v>
       </c>
       <c r="F14">
-        <v>-0.04523268808366262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01109705729200664</v>
+      </c>
+      <c r="G14">
+        <v>-0.0322393457208456</v>
+      </c>
+      <c r="H14">
+        <v>5.98273885471851e-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02433542384379117</v>
+        <v>-0.02109713665427243</v>
       </c>
       <c r="C16">
-        <v>-0.003031396809108574</v>
+        <v>0.04089231853949871</v>
       </c>
       <c r="D16">
-        <v>0.04290363946673118</v>
+        <v>-0.0001949795304618881</v>
       </c>
       <c r="E16">
-        <v>0.0006528438655908859</v>
+        <v>0.005972350359438409</v>
       </c>
       <c r="F16">
-        <v>-0.02476021720914743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02304201938550314</v>
+      </c>
+      <c r="G16">
+        <v>-0.008887243676256654</v>
+      </c>
+      <c r="H16">
+        <v>0.006680417388065284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02681352254602533</v>
+        <v>-0.02046905910710783</v>
       </c>
       <c r="C19">
-        <v>-0.0009164457970677622</v>
+        <v>0.04930357040363428</v>
       </c>
       <c r="D19">
-        <v>0.03123024212313171</v>
+        <v>-0.01322434439545328</v>
       </c>
       <c r="E19">
-        <v>-0.01325486999186705</v>
+        <v>-0.0208091940758159</v>
       </c>
       <c r="F19">
-        <v>-0.08385720170474383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0588674687780166</v>
+      </c>
+      <c r="G19">
+        <v>-0.02930102603698445</v>
+      </c>
+      <c r="H19">
+        <v>-0.001497859685218639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0002070953580798517</v>
+        <v>-0.003788587139746908</v>
       </c>
       <c r="C20">
-        <v>-0.0046982483871884</v>
+        <v>0.02652078170226523</v>
       </c>
       <c r="D20">
-        <v>0.001293359016740769</v>
+        <v>-0.01196859033246905</v>
       </c>
       <c r="E20">
-        <v>-0.0213110021513859</v>
+        <v>-0.01543527735172164</v>
       </c>
       <c r="F20">
-        <v>-0.03069849516233322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02435354167523223</v>
+      </c>
+      <c r="G20">
+        <v>-0.0189330302756605</v>
+      </c>
+      <c r="H20">
+        <v>0.005246699448779988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03092024170214222</v>
+        <v>-0.004853485089221468</v>
       </c>
       <c r="C21">
-        <v>-0.0214747474414825</v>
+        <v>0.03005060403545839</v>
       </c>
       <c r="D21">
-        <v>0.01801852288545106</v>
+        <v>-0.01499216449353531</v>
       </c>
       <c r="E21">
-        <v>-0.008131800924218623</v>
+        <v>-0.01438773810351416</v>
       </c>
       <c r="F21">
-        <v>-0.03643987837469227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03833174544197042</v>
+      </c>
+      <c r="G21">
+        <v>-0.03847353878148044</v>
+      </c>
+      <c r="H21">
+        <v>0.01614924008493588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02307420869740878</v>
+        <v>-0.01647684156624846</v>
       </c>
       <c r="C24">
-        <v>-0.0008670533553433397</v>
+        <v>0.04292638019453068</v>
       </c>
       <c r="D24">
-        <v>0.0335410239884605</v>
+        <v>-0.005341320125602372</v>
       </c>
       <c r="E24">
-        <v>-5.861191209833403e-05</v>
+        <v>0.01076992339517947</v>
       </c>
       <c r="F24">
-        <v>-0.01765178659368135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02869186190140641</v>
+      </c>
+      <c r="G24">
+        <v>-0.003741529986519532</v>
+      </c>
+      <c r="H24">
+        <v>0.01449620731021497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03489568902971329</v>
+        <v>-0.03261777426090643</v>
       </c>
       <c r="C25">
-        <v>0.0005218133933847861</v>
+        <v>0.05168301115155787</v>
       </c>
       <c r="D25">
-        <v>0.03401824263922132</v>
+        <v>-0.009020247869383583</v>
       </c>
       <c r="E25">
-        <v>-0.008955855905553027</v>
+        <v>0.01667474856058484</v>
       </c>
       <c r="F25">
-        <v>-0.0325914376603391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02609521181247329</v>
+      </c>
+      <c r="G25">
+        <v>-0.01320118692711641</v>
+      </c>
+      <c r="H25">
+        <v>0.005299839623185134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001472674907230269</v>
+        <v>-0.0003819166321025024</v>
       </c>
       <c r="C26">
-        <v>-0.009813670287756183</v>
+        <v>0.003654048057706509</v>
       </c>
       <c r="D26">
-        <v>0.01012395679150744</v>
+        <v>-0.02319920246758424</v>
       </c>
       <c r="E26">
-        <v>-0.0257950500370238</v>
+        <v>0.002575371176034258</v>
       </c>
       <c r="F26">
-        <v>-0.0248605428562963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01097377225579814</v>
+      </c>
+      <c r="G26">
+        <v>-0.01848676529258293</v>
+      </c>
+      <c r="H26">
+        <v>0.006733222038030426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0005667344246456774</v>
+        <v>-0.0006739490633479399</v>
       </c>
       <c r="C27">
-        <v>-0.0005949381602260804</v>
+        <v>-0.0007618724269907965</v>
       </c>
       <c r="D27">
-        <v>-0.005601598890622504</v>
+        <v>0.0006937184634240586</v>
       </c>
       <c r="E27">
-        <v>0.01275955195078654</v>
+        <v>-2.824543989706005e-05</v>
       </c>
       <c r="F27">
-        <v>-0.01607076444611204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.001677028665966447</v>
+      </c>
+      <c r="G27">
+        <v>-0.004347058500206341</v>
+      </c>
+      <c r="H27">
+        <v>-0.009194171573749042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09364423230171942</v>
+        <v>-0.1451516876974155</v>
       </c>
       <c r="C28">
-        <v>0.01546425585248267</v>
+        <v>-0.2080576399190047</v>
       </c>
       <c r="D28">
-        <v>-0.2328437987765679</v>
+        <v>0.01306666651316087</v>
       </c>
       <c r="E28">
-        <v>-0.06223236065149075</v>
+        <v>-0.01987747175550272</v>
       </c>
       <c r="F28">
-        <v>0.01629839059016554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.005918996648012458</v>
+      </c>
+      <c r="G28">
+        <v>-0.04014805331142236</v>
+      </c>
+      <c r="H28">
+        <v>0.03833880353493552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01321727384563847</v>
+        <v>-0.007957108156458821</v>
       </c>
       <c r="C29">
-        <v>-0.01143890981572984</v>
+        <v>0.01750987833005592</v>
       </c>
       <c r="D29">
-        <v>0.00765136729741884</v>
+        <v>-0.006644706065575231</v>
       </c>
       <c r="E29">
-        <v>-0.0006036210658708627</v>
+        <v>0.006746882188765737</v>
       </c>
       <c r="F29">
-        <v>-0.04666238824609589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.005827453703739026</v>
+      </c>
+      <c r="G29">
+        <v>-0.02837345976480404</v>
+      </c>
+      <c r="H29">
+        <v>-0.006404790631414481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03624944336028881</v>
+        <v>-0.02899875461860148</v>
       </c>
       <c r="C30">
-        <v>0.04761895267955773</v>
+        <v>0.08026832946599015</v>
       </c>
       <c r="D30">
-        <v>0.05699464182762656</v>
+        <v>-0.02543699137980788</v>
       </c>
       <c r="E30">
-        <v>-0.01810988108033987</v>
+        <v>-0.004287127020576089</v>
       </c>
       <c r="F30">
-        <v>-0.09314793578464256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.05274760363371012</v>
+      </c>
+      <c r="G30">
+        <v>0.008977333540054774</v>
+      </c>
+      <c r="H30">
+        <v>-0.02242595293395492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04526940157135933</v>
+        <v>-0.03347975525963679</v>
       </c>
       <c r="C31">
-        <v>-0.01082595267720979</v>
+        <v>0.02049347090230218</v>
       </c>
       <c r="D31">
-        <v>0.01706319604634528</v>
+        <v>-0.001769931585443111</v>
       </c>
       <c r="E31">
-        <v>0.00878696257345769</v>
+        <v>0.009629980857317444</v>
       </c>
       <c r="F31">
-        <v>-0.02823589070132547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01464251096628139</v>
+      </c>
+      <c r="G31">
+        <v>-0.02334452597286081</v>
+      </c>
+      <c r="H31">
+        <v>0.005101011247818326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003128581739054058</v>
+        <v>-0.001392950952238545</v>
       </c>
       <c r="C32">
-        <v>-0.02780470736217663</v>
+        <v>0.02940274828900749</v>
       </c>
       <c r="D32">
-        <v>0.02621095034394584</v>
+        <v>0.006120356479372853</v>
       </c>
       <c r="E32">
-        <v>0.0101165900585629</v>
+        <v>-0.002383627846427796</v>
       </c>
       <c r="F32">
-        <v>-0.05910635883433442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.09604644950449377</v>
+      </c>
+      <c r="G32">
+        <v>-0.04049217113233598</v>
+      </c>
+      <c r="H32">
+        <v>-0.009938583594404195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03148556679610112</v>
+        <v>-0.02043433024067845</v>
       </c>
       <c r="C33">
-        <v>0.01861473928442379</v>
+        <v>0.04995404518650353</v>
       </c>
       <c r="D33">
-        <v>0.03603768816083269</v>
+        <v>-0.01268839226424415</v>
       </c>
       <c r="E33">
-        <v>-0.02271823393371485</v>
+        <v>-0.009895654734502232</v>
       </c>
       <c r="F33">
-        <v>-0.04896016386709278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03431373268782306</v>
+      </c>
+      <c r="G33">
+        <v>-0.005532199355417468</v>
+      </c>
+      <c r="H33">
+        <v>0.01937664161169109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02419948200031483</v>
+        <v>-0.03303880504406957</v>
       </c>
       <c r="C34">
-        <v>-0.01032103951888706</v>
+        <v>0.05370481703779574</v>
       </c>
       <c r="D34">
-        <v>0.04210177575164232</v>
+        <v>0.007065986625842921</v>
       </c>
       <c r="E34">
-        <v>0.002566640215017402</v>
+        <v>0.01949144573344338</v>
       </c>
       <c r="F34">
-        <v>-0.02744421574510252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03001759068562536</v>
+      </c>
+      <c r="G34">
+        <v>-0.01680506854097483</v>
+      </c>
+      <c r="H34">
+        <v>0.01012359836652633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.010390434356447</v>
+        <v>-0.007773387923737383</v>
       </c>
       <c r="C36">
-        <v>-0.005555963470738043</v>
+        <v>-0.0006276283022313892</v>
       </c>
       <c r="D36">
-        <v>0.001133994231909647</v>
+        <v>-0.01026839225430775</v>
       </c>
       <c r="E36">
-        <v>-0.007846663020757436</v>
+        <v>0.0001868642134294582</v>
       </c>
       <c r="F36">
-        <v>-0.02195369692635801</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.008157361355917702</v>
+      </c>
+      <c r="G36">
+        <v>-0.0111650558137179</v>
+      </c>
+      <c r="H36">
+        <v>0.009327458307768297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01869654743175652</v>
+        <v>-0.02448990823483326</v>
       </c>
       <c r="C38">
-        <v>0.003602557297321281</v>
+        <v>0.01824567585288558</v>
       </c>
       <c r="D38">
-        <v>0.002994027149593592</v>
+        <v>0.009062394887683931</v>
       </c>
       <c r="E38">
-        <v>-0.03057658743404306</v>
+        <v>0.002789387689572048</v>
       </c>
       <c r="F38">
-        <v>-0.04504897768154945</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01514411871354421</v>
+      </c>
+      <c r="G38">
+        <v>-0.01674667674974731</v>
+      </c>
+      <c r="H38">
+        <v>0.004256320839495987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01881901652323071</v>
+        <v>-0.0154285400524616</v>
       </c>
       <c r="C39">
-        <v>-0.00868468274877357</v>
+        <v>0.08343797966349892</v>
       </c>
       <c r="D39">
-        <v>0.06072208725559433</v>
+        <v>-0.01080944501067206</v>
       </c>
       <c r="E39">
-        <v>-0.01602478715596072</v>
+        <v>0.002792742625422748</v>
       </c>
       <c r="F39">
-        <v>-0.0522517357607138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04918196849018143</v>
+      </c>
+      <c r="G39">
+        <v>-0.004555710968390896</v>
+      </c>
+      <c r="H39">
+        <v>0.01920768560120591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02160594482588111</v>
+        <v>-0.01655167269377399</v>
       </c>
       <c r="C40">
-        <v>0.001425195157147973</v>
+        <v>0.03020490490194894</v>
       </c>
       <c r="D40">
-        <v>0.0431243865899053</v>
+        <v>-0.01137345722078721</v>
       </c>
       <c r="E40">
-        <v>-0.01616268111052833</v>
+        <v>-0.0004575205645998092</v>
       </c>
       <c r="F40">
-        <v>-0.02059828180079231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03186031354698727</v>
+      </c>
+      <c r="G40">
+        <v>-0.007471858165853527</v>
+      </c>
+      <c r="H40">
+        <v>0.01609511733076623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009446135036851822</v>
+        <v>-0.01053929112698164</v>
       </c>
       <c r="C41">
-        <v>0.001075346140509444</v>
+        <v>-0.008511643551497694</v>
       </c>
       <c r="D41">
-        <v>-0.0110707732860886</v>
+        <v>-0.002679351233348864</v>
       </c>
       <c r="E41">
-        <v>-0.01106837151520485</v>
+        <v>0.005056612310747471</v>
       </c>
       <c r="F41">
-        <v>-0.002995785369384101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004983958612062908</v>
+      </c>
+      <c r="G41">
+        <v>-0.004483274589299602</v>
+      </c>
+      <c r="H41">
+        <v>0.008393633415607232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.222232581474327</v>
+        <v>-0.04502868084617075</v>
       </c>
       <c r="C42">
-        <v>0.1503157468447725</v>
+        <v>0.09891960169905924</v>
       </c>
       <c r="D42">
-        <v>0.2368791728499887</v>
+        <v>-0.1178760590518029</v>
       </c>
       <c r="E42">
-        <v>-0.6120401066391786</v>
+        <v>-0.1115394194509861</v>
       </c>
       <c r="F42">
-        <v>0.6546059164840209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3494020752788229</v>
+      </c>
+      <c r="G42">
+        <v>0.4272268277484666</v>
+      </c>
+      <c r="H42">
+        <v>0.7930751993557139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01471727166618898</v>
+        <v>-0.02138476666875337</v>
       </c>
       <c r="C43">
-        <v>0.004685006538674279</v>
+        <v>-3.148366208987984e-05</v>
       </c>
       <c r="D43">
-        <v>-0.008762603544604092</v>
+        <v>-0.002495656682923524</v>
       </c>
       <c r="E43">
-        <v>-0.01506181369014328</v>
+        <v>0.002509535819360231</v>
       </c>
       <c r="F43">
-        <v>-0.009910530266252203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01247552513967563</v>
+      </c>
+      <c r="G43">
+        <v>-0.003337708773135478</v>
+      </c>
+      <c r="H43">
+        <v>0.01243077462846106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.007043189529913966</v>
+        <v>-0.00909888342903469</v>
       </c>
       <c r="C44">
-        <v>-0.01187707743215575</v>
+        <v>0.04723299633835278</v>
       </c>
       <c r="D44">
-        <v>0.01858442636711339</v>
+        <v>-0.00580279000732803</v>
       </c>
       <c r="E44">
-        <v>-0.03557696528071208</v>
+        <v>-0.01030345913559705</v>
       </c>
       <c r="F44">
-        <v>-0.06947899706625997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03594015051088967</v>
+      </c>
+      <c r="G44">
+        <v>-0.02096848106926827</v>
+      </c>
+      <c r="H44">
+        <v>0.02284625306439955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01250057626904154</v>
+        <v>0.0009263101770116615</v>
       </c>
       <c r="C46">
-        <v>-0.002672994056154533</v>
+        <v>0.009980605045809752</v>
       </c>
       <c r="D46">
-        <v>0.03534646570607626</v>
+        <v>-0.01110814421040269</v>
       </c>
       <c r="E46">
-        <v>-0.01233315030379999</v>
+        <v>-0.0001376774607453103</v>
       </c>
       <c r="F46">
-        <v>-0.0701576986257942</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.007125000878333987</v>
+      </c>
+      <c r="G46">
+        <v>-0.01801365634166371</v>
+      </c>
+      <c r="H46">
+        <v>-0.003130506104706071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06781130173802423</v>
+        <v>-0.05643430612239669</v>
       </c>
       <c r="C47">
-        <v>0.005013277071521799</v>
+        <v>0.05353135352668865</v>
       </c>
       <c r="D47">
-        <v>0.01854976315611588</v>
+        <v>0.00620121793215517</v>
       </c>
       <c r="E47">
-        <v>0.03217253157700074</v>
+        <v>0.008808321108787799</v>
       </c>
       <c r="F47">
-        <v>0.002077682784323135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04492494379197013</v>
+      </c>
+      <c r="G47">
+        <v>-0.02182817593387487</v>
+      </c>
+      <c r="H47">
+        <v>-0.00859406377070477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02076911508222583</v>
+        <v>-0.009851931992092859</v>
       </c>
       <c r="C48">
-        <v>-0.004306059834828149</v>
+        <v>0.003525949192586442</v>
       </c>
       <c r="D48">
-        <v>0.005769014480731174</v>
+        <v>-0.000399364135818939</v>
       </c>
       <c r="E48">
-        <v>-0.005293021823775191</v>
+        <v>0.001908191001798494</v>
       </c>
       <c r="F48">
-        <v>-0.02588695827679708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.003554921698565473</v>
+      </c>
+      <c r="G48">
+        <v>-0.01569366711298827</v>
+      </c>
+      <c r="H48">
+        <v>0.003862745545801057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07773518668343325</v>
+        <v>-0.05937234817153741</v>
       </c>
       <c r="C50">
-        <v>-0.023738522131847</v>
+        <v>0.0540261244079096</v>
       </c>
       <c r="D50">
-        <v>0.0416812282380549</v>
+        <v>0.004997415508039387</v>
       </c>
       <c r="E50">
-        <v>0.01055250575376811</v>
+        <v>0.01097933067289357</v>
       </c>
       <c r="F50">
-        <v>-0.02488590981872655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04295750609745961</v>
+      </c>
+      <c r="G50">
+        <v>-0.04649542835030059</v>
+      </c>
+      <c r="H50">
+        <v>0.004426943501340382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008243440855076624</v>
+        <v>-0.008373999495644841</v>
       </c>
       <c r="C51">
-        <v>-0.007263086980048327</v>
+        <v>0.02223951877362106</v>
       </c>
       <c r="D51">
-        <v>-0.01497460858298982</v>
+        <v>-0.00802892790687937</v>
       </c>
       <c r="E51">
-        <v>-0.04263398909640986</v>
+        <v>0.002599715678338651</v>
       </c>
       <c r="F51">
-        <v>-0.06408751102792352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0442355113503938</v>
+      </c>
+      <c r="G51">
+        <v>-0.02304580028111926</v>
+      </c>
+      <c r="H51">
+        <v>0.02509572366433473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1008520675498971</v>
+        <v>-0.08004052852595972</v>
       </c>
       <c r="C53">
-        <v>-0.00656512422093786</v>
+        <v>0.0800515789623987</v>
       </c>
       <c r="D53">
-        <v>0.04805405696053233</v>
+        <v>0.006817078626043789</v>
       </c>
       <c r="E53">
-        <v>0.05804661761627974</v>
+        <v>0.03440471333979387</v>
       </c>
       <c r="F53">
-        <v>0.008451561171540108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06298560848933735</v>
+      </c>
+      <c r="G53">
+        <v>-0.02662108354114292</v>
+      </c>
+      <c r="H53">
+        <v>-0.004992937815291901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02320534930224602</v>
+        <v>-0.02341590282085498</v>
       </c>
       <c r="C54">
-        <v>-0.009389403169818164</v>
+        <v>-0.001578920139392331</v>
       </c>
       <c r="D54">
-        <v>-0.0001040114525411429</v>
+        <v>0.005321749875495532</v>
       </c>
       <c r="E54">
-        <v>0.01396952533073138</v>
+        <v>-0.001134845562080325</v>
       </c>
       <c r="F54">
-        <v>-0.03572210965066604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01283629193663339</v>
+      </c>
+      <c r="G54">
+        <v>-0.02397066514051036</v>
+      </c>
+      <c r="H54">
+        <v>0.0008638415614677778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0749637999366102</v>
+        <v>-0.05674594322594996</v>
       </c>
       <c r="C55">
-        <v>-0.0004755455817012476</v>
+        <v>0.06753145190327786</v>
       </c>
       <c r="D55">
-        <v>0.06567937331098958</v>
+        <v>0.005359563724475977</v>
       </c>
       <c r="E55">
-        <v>0.03416125846893188</v>
+        <v>0.02210420222235394</v>
       </c>
       <c r="F55">
-        <v>0.01006996649899503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05540014439976177</v>
+      </c>
+      <c r="G55">
+        <v>-0.01347110946377827</v>
+      </c>
+      <c r="H55">
+        <v>-0.006096205349025126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.142337209785015</v>
+        <v>-0.1220048732737005</v>
       </c>
       <c r="C56">
-        <v>0.0018802972619317</v>
+        <v>0.1116797878386023</v>
       </c>
       <c r="D56">
-        <v>0.06722916285641653</v>
+        <v>0.01549132592262418</v>
       </c>
       <c r="E56">
-        <v>0.08375516297374476</v>
+        <v>0.03412390115733286</v>
       </c>
       <c r="F56">
-        <v>0.03657815020752884</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1062617404649714</v>
+      </c>
+      <c r="G56">
+        <v>-0.01373186854554348</v>
+      </c>
+      <c r="H56">
+        <v>-0.02958552883661565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0328716665935238</v>
+        <v>-0.01472644401040767</v>
       </c>
       <c r="C57">
-        <v>0.009084352261976776</v>
+        <v>0.01654980253903214</v>
       </c>
       <c r="D57">
-        <v>0.01609897274364413</v>
+        <v>-0.02351949748961428</v>
       </c>
       <c r="E57">
-        <v>-0.04370945357846866</v>
+        <v>-0.03011414704616951</v>
       </c>
       <c r="F57">
-        <v>-0.03195078864109692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0302998738040474</v>
+      </c>
+      <c r="G57">
+        <v>-0.01853253792332828</v>
+      </c>
+      <c r="H57">
+        <v>0.01238241949952421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1950698432246041</v>
+        <v>-0.07516382001419608</v>
       </c>
       <c r="C58">
-        <v>0.1313169542647262</v>
+        <v>0.1334627401819005</v>
       </c>
       <c r="D58">
-        <v>0.1524763779612678</v>
+        <v>-0.01662673608609837</v>
       </c>
       <c r="E58">
-        <v>-0.4194695574378088</v>
+        <v>-0.9637806749781631</v>
       </c>
       <c r="F58">
-        <v>-0.5352060444800403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.02766218380239109</v>
+      </c>
+      <c r="G58">
+        <v>-0.09749693535662686</v>
+      </c>
+      <c r="H58">
+        <v>-0.1152242858144044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0908585146881095</v>
+        <v>-0.1766105639266078</v>
       </c>
       <c r="C59">
-        <v>0.03467783351300115</v>
+        <v>-0.1953662092221876</v>
       </c>
       <c r="D59">
-        <v>-0.1965552925934938</v>
+        <v>0.02106159199164843</v>
       </c>
       <c r="E59">
-        <v>-0.04764605790044913</v>
+        <v>-0.01550964110782314</v>
       </c>
       <c r="F59">
-        <v>-0.03785477505923071</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01573830535807574</v>
+      </c>
+      <c r="G59">
+        <v>-0.01761872354360637</v>
+      </c>
+      <c r="H59">
+        <v>0.01026993200821986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1987137192961702</v>
+        <v>-0.2959656980503921</v>
       </c>
       <c r="C60">
-        <v>0.04700708990046464</v>
+        <v>0.1182822033901419</v>
       </c>
       <c r="D60">
-        <v>-0.02212406811517857</v>
+        <v>0.002984659992800482</v>
       </c>
       <c r="E60">
-        <v>-0.08216646669769995</v>
+        <v>0.05595280132237321</v>
       </c>
       <c r="F60">
-        <v>-0.1035379776105557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3679174313963294</v>
+      </c>
+      <c r="G60">
+        <v>0.09721298124087636</v>
+      </c>
+      <c r="H60">
+        <v>0.04346186600212457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02543033489303374</v>
+        <v>-0.02043444366055175</v>
       </c>
       <c r="C61">
-        <v>-0.002942155778815808</v>
+        <v>0.06573539665632978</v>
       </c>
       <c r="D61">
-        <v>0.05097347493189436</v>
+        <v>-0.003995876898006951</v>
       </c>
       <c r="E61">
-        <v>-0.009427160373548363</v>
+        <v>0.005932083460007722</v>
       </c>
       <c r="F61">
-        <v>-0.02916557183969777</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03628828343986882</v>
+      </c>
+      <c r="G61">
+        <v>-0.009328169111824625</v>
+      </c>
+      <c r="H61">
+        <v>0.009064503361440331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01230060496056098</v>
+        <v>-0.007154672277858424</v>
       </c>
       <c r="C63">
-        <v>-0.006997881963765507</v>
+        <v>0.0276078179084011</v>
       </c>
       <c r="D63">
-        <v>0.02339343916828904</v>
+        <v>-0.007432625189263857</v>
       </c>
       <c r="E63">
-        <v>-0.001083873374526843</v>
+        <v>0.01409439316254101</v>
       </c>
       <c r="F63">
-        <v>-0.01166399685992903</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0009233226055907781</v>
+      </c>
+      <c r="G63">
+        <v>-0.0210423386498862</v>
+      </c>
+      <c r="H63">
+        <v>-9.958558909368641e-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04267293920329114</v>
+        <v>-0.04049965160909153</v>
       </c>
       <c r="C64">
-        <v>-0.001703800580603133</v>
+        <v>0.03762626424819538</v>
       </c>
       <c r="D64">
-        <v>0.02916879638691012</v>
+        <v>-0.003094743153219313</v>
       </c>
       <c r="E64">
-        <v>-0.001570639935927024</v>
+        <v>0.01803315502844473</v>
       </c>
       <c r="F64">
-        <v>-0.0238151990437578</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01475977106482697</v>
+      </c>
+      <c r="G64">
+        <v>-0.003140596972714512</v>
+      </c>
+      <c r="H64">
+        <v>0.02587760642872003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05912567982549217</v>
+        <v>-0.06859412794254323</v>
       </c>
       <c r="C65">
-        <v>-0.004952348902308186</v>
+        <v>0.08134143556326864</v>
       </c>
       <c r="D65">
-        <v>0.04385077663803663</v>
+        <v>-0.01322371706007748</v>
       </c>
       <c r="E65">
-        <v>-0.001447225728756305</v>
+        <v>0.0163537228749269</v>
       </c>
       <c r="F65">
-        <v>-0.03698650199924382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02987162873474583</v>
+      </c>
+      <c r="G65">
+        <v>-0.008109101912441751</v>
+      </c>
+      <c r="H65">
+        <v>-0.011813941227559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04161012563279529</v>
+        <v>-0.03350060262869637</v>
       </c>
       <c r="C66">
-        <v>0.009349025741954347</v>
+        <v>0.1233124447856209</v>
       </c>
       <c r="D66">
-        <v>0.0727495235407105</v>
+        <v>-0.009167504155505232</v>
       </c>
       <c r="E66">
-        <v>0.02378115849898199</v>
+        <v>0.005562914578709682</v>
       </c>
       <c r="F66">
-        <v>-0.07310094376175978</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06286749573487993</v>
+      </c>
+      <c r="G66">
+        <v>-0.002330458588440124</v>
+      </c>
+      <c r="H66">
+        <v>-0.00902896191405245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03244864582983279</v>
+        <v>-0.04799791002748532</v>
       </c>
       <c r="C67">
-        <v>0.007116008773818639</v>
+        <v>0.02594020962470888</v>
       </c>
       <c r="D67">
-        <v>-0.002525788634831403</v>
+        <v>0.007934190989850669</v>
       </c>
       <c r="E67">
-        <v>-0.01325044714412541</v>
+        <v>0.009154595739806325</v>
       </c>
       <c r="F67">
-        <v>-0.03606230701873742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01425634762108606</v>
+      </c>
+      <c r="G67">
+        <v>-0.01836368497703074</v>
+      </c>
+      <c r="H67">
+        <v>-0.002942677948268244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09180979800723631</v>
+        <v>-0.1674994238415412</v>
       </c>
       <c r="C68">
-        <v>0.03493344636049926</v>
+        <v>-0.2359795400450671</v>
       </c>
       <c r="D68">
-        <v>-0.2203761192734058</v>
+        <v>0.002660227865239049</v>
       </c>
       <c r="E68">
-        <v>-0.04256068858433334</v>
+        <v>-0.02524806478159664</v>
       </c>
       <c r="F68">
-        <v>-0.000713095149086119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01735655663375921</v>
+      </c>
+      <c r="G68">
+        <v>-0.01722751824114349</v>
+      </c>
+      <c r="H68">
+        <v>0.02333610301946982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05339275236550381</v>
+        <v>-0.05730026546800207</v>
       </c>
       <c r="C69">
-        <v>0.003543187625304006</v>
+        <v>0.05181053651589222</v>
       </c>
       <c r="D69">
-        <v>0.02936516452814079</v>
+        <v>0.0105299978621055</v>
       </c>
       <c r="E69">
-        <v>0.03010194188703092</v>
+        <v>0.02769172187383092</v>
       </c>
       <c r="F69">
-        <v>-0.01299160537048872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01891174113755791</v>
+      </c>
+      <c r="G69">
+        <v>-0.01558121447884448</v>
+      </c>
+      <c r="H69">
+        <v>-0.009139241918803052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08610109536785375</v>
+        <v>-0.1541285231547983</v>
       </c>
       <c r="C71">
-        <v>0.02065997076458633</v>
+        <v>-0.2036154131579813</v>
       </c>
       <c r="D71">
-        <v>-0.2191164318602031</v>
+        <v>0.009569023496584719</v>
       </c>
       <c r="E71">
-        <v>-0.08596885559850223</v>
+        <v>-0.03807159396585904</v>
       </c>
       <c r="F71">
-        <v>0.03402218580588497</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.01990768179202679</v>
+      </c>
+      <c r="G71">
+        <v>-0.02326400051887096</v>
+      </c>
+      <c r="H71">
+        <v>0.0479847111531732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1026891736277676</v>
+        <v>-0.07355977487954313</v>
       </c>
       <c r="C72">
-        <v>0.006077456534176449</v>
+        <v>0.09156198379295005</v>
       </c>
       <c r="D72">
-        <v>0.109040269885268</v>
+        <v>0.01233068004792831</v>
       </c>
       <c r="E72">
-        <v>0.002573219240616109</v>
+        <v>0.02945642227315817</v>
       </c>
       <c r="F72">
-        <v>-0.1556235992570714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04117270381804572</v>
+      </c>
+      <c r="G72">
+        <v>-0.001048093584136788</v>
+      </c>
+      <c r="H72">
+        <v>-0.02601339805493746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.23928423684789</v>
+        <v>-0.3930085978042981</v>
       </c>
       <c r="C73">
-        <v>0.1045576134700072</v>
+        <v>0.1815710944897262</v>
       </c>
       <c r="D73">
-        <v>0.00890998408636828</v>
+        <v>-0.00158251489952003</v>
       </c>
       <c r="E73">
-        <v>-0.1491840963129409</v>
+        <v>0.03430577408843969</v>
       </c>
       <c r="F73">
-        <v>-0.1041154331615682</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.4791527543716947</v>
+      </c>
+      <c r="G73">
+        <v>0.1603999780695783</v>
+      </c>
+      <c r="H73">
+        <v>0.1028808891351975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1327983133354887</v>
+        <v>-0.1038470815922559</v>
       </c>
       <c r="C74">
-        <v>0.01014135358574673</v>
+        <v>0.1199102757104656</v>
       </c>
       <c r="D74">
-        <v>0.0680031547448313</v>
+        <v>0.01273436256046272</v>
       </c>
       <c r="E74">
-        <v>0.07348103261632509</v>
+        <v>0.03639359728634552</v>
       </c>
       <c r="F74">
-        <v>0.02907057347754521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08336679524616067</v>
+      </c>
+      <c r="G74">
+        <v>-0.02715578241716744</v>
+      </c>
+      <c r="H74">
+        <v>-0.01170782830518987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.265724380913796</v>
+        <v>-0.2298923433070877</v>
       </c>
       <c r="C75">
-        <v>0.02823677464114701</v>
+        <v>0.1782801615173468</v>
       </c>
       <c r="D75">
-        <v>0.09595147420829986</v>
+        <v>0.0329196102854038</v>
       </c>
       <c r="E75">
-        <v>0.1721824567940503</v>
+        <v>0.04252656951152968</v>
       </c>
       <c r="F75">
-        <v>0.01729821930550443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2165076968741495</v>
+      </c>
+      <c r="G75">
+        <v>-0.01999203001750254</v>
+      </c>
+      <c r="H75">
+        <v>-0.08103133920718082</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2695173893643008</v>
+        <v>-0.1459332260232887</v>
       </c>
       <c r="C76">
-        <v>0.007061944068283709</v>
+        <v>0.147308876153714</v>
       </c>
       <c r="D76">
-        <v>0.1149712753389238</v>
+        <v>0.02679191905702509</v>
       </c>
       <c r="E76">
-        <v>0.22415189550793</v>
+        <v>0.06470677531892211</v>
       </c>
       <c r="F76">
-        <v>0.06553501985524332</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1834686625546152</v>
+      </c>
+      <c r="G76">
+        <v>-0.04156557279766041</v>
+      </c>
+      <c r="H76">
+        <v>-0.05887677167752684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07901215284892781</v>
+        <v>-0.04653910993607991</v>
       </c>
       <c r="C77">
-        <v>0.009820641026937294</v>
+        <v>0.07115273635081049</v>
       </c>
       <c r="D77">
-        <v>0.07372267787134498</v>
+        <v>-0.01246958776122952</v>
       </c>
       <c r="E77">
-        <v>-0.110411153276693</v>
+        <v>-0.02894604785635468</v>
       </c>
       <c r="F77">
-        <v>-0.0181653611313302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01191976102160534</v>
+      </c>
+      <c r="G77">
+        <v>-0.02048613870437051</v>
+      </c>
+      <c r="H77">
+        <v>0.03567721681051891</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03334043898757221</v>
+        <v>-0.03241551101026403</v>
       </c>
       <c r="C78">
-        <v>-0.005003506023424795</v>
+        <v>0.06062919092531058</v>
       </c>
       <c r="D78">
-        <v>0.05621334111180099</v>
+        <v>-0.004350659579239126</v>
       </c>
       <c r="E78">
-        <v>-0.02599319253376866</v>
+        <v>-0.00498134575944791</v>
       </c>
       <c r="F78">
-        <v>-0.07437600526365262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.0474533018408776</v>
+      </c>
+      <c r="G78">
+        <v>-0.01377529164454649</v>
+      </c>
+      <c r="H78">
+        <v>0.004660092560790201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2318626273137447</v>
+        <v>-0.05703641841915839</v>
       </c>
       <c r="C80">
-        <v>-0.9442314841629756</v>
+        <v>0.089022805867902</v>
       </c>
       <c r="D80">
-        <v>-0.06209020655128689</v>
+        <v>-0.01137069904003553</v>
       </c>
       <c r="E80">
-        <v>-0.1465764844978724</v>
+        <v>0.0663296754157567</v>
       </c>
       <c r="F80">
-        <v>0.02396269307801658</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.004675802226036084</v>
+      </c>
+      <c r="G80">
+        <v>-0.8471306596498654</v>
+      </c>
+      <c r="H80">
+        <v>0.438957727537488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2068315835018517</v>
+        <v>-0.1374135139104167</v>
       </c>
       <c r="C81">
-        <v>0.01131255442970468</v>
+        <v>0.1019762948849127</v>
       </c>
       <c r="D81">
-        <v>0.06203513710644888</v>
+        <v>0.01991509685506436</v>
       </c>
       <c r="E81">
-        <v>0.1407170988016862</v>
+        <v>0.02468754434422629</v>
       </c>
       <c r="F81">
-        <v>-0.007680069855557459</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1411072835047466</v>
+      </c>
+      <c r="G81">
+        <v>-0.0341839455171914</v>
+      </c>
+      <c r="H81">
+        <v>-0.0409673557068767</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02316473519063348</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01740713249206697</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002024224256134597</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01621565650790585</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01195048601660599</v>
+      </c>
+      <c r="G82">
+        <v>0.001448237879671657</v>
+      </c>
+      <c r="H82">
+        <v>-0.004260521576623176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03181162752198035</v>
+        <v>-0.02242628960409016</v>
       </c>
       <c r="C83">
-        <v>0.006902652299500518</v>
+        <v>0.01983240620315313</v>
       </c>
       <c r="D83">
-        <v>0.009191664555498611</v>
+        <v>-0.004729867995002761</v>
       </c>
       <c r="E83">
-        <v>-0.03644933500686074</v>
+        <v>-0.01708125906704243</v>
       </c>
       <c r="F83">
-        <v>-0.03247567499118571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03428874782836026</v>
+      </c>
+      <c r="G83">
+        <v>-0.01682384994120834</v>
+      </c>
+      <c r="H83">
+        <v>0.01370796340015164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2562728845795595</v>
+        <v>-0.2207279777129627</v>
       </c>
       <c r="C85">
-        <v>0.03700202595649021</v>
+        <v>0.1899309238040609</v>
       </c>
       <c r="D85">
-        <v>0.1193112283803385</v>
+        <v>0.02192119164889235</v>
       </c>
       <c r="E85">
-        <v>0.197039564451511</v>
+        <v>0.07418961866333357</v>
       </c>
       <c r="F85">
-        <v>0.03750573837059375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2242976768743208</v>
+      </c>
+      <c r="G85">
+        <v>0.02209314317956541</v>
+      </c>
+      <c r="H85">
+        <v>-0.1070904200945281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005348044056604739</v>
+        <v>-0.00436255426691017</v>
       </c>
       <c r="C86">
-        <v>-0.008618323921322892</v>
+        <v>0.03058269077283068</v>
       </c>
       <c r="D86">
-        <v>0.03999658084317127</v>
+        <v>-0.009108533055677786</v>
       </c>
       <c r="E86">
-        <v>-0.03077623217035485</v>
+        <v>-0.005615834492748885</v>
       </c>
       <c r="F86">
-        <v>-0.06899009866356758</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0262316634600529</v>
+      </c>
+      <c r="G86">
+        <v>-0.03381169978322004</v>
+      </c>
+      <c r="H86">
+        <v>0.04116020010609395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0278832058334477</v>
+        <v>-0.008412611793183859</v>
       </c>
       <c r="C87">
-        <v>-0.006778578626021001</v>
+        <v>0.03632604771745797</v>
       </c>
       <c r="D87">
-        <v>0.03260727536858568</v>
+        <v>-0.01002387685519932</v>
       </c>
       <c r="E87">
-        <v>-0.05847961138697025</v>
+        <v>-0.04284550204805451</v>
       </c>
       <c r="F87">
-        <v>-0.09368188089620415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.05702345005099482</v>
+      </c>
+      <c r="G87">
+        <v>-0.02458793982523861</v>
+      </c>
+      <c r="H87">
+        <v>0.0261281195088223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04512585671021171</v>
+        <v>-0.06403931896315274</v>
       </c>
       <c r="C88">
-        <v>0.007863711259771419</v>
+        <v>0.0385430079663522</v>
       </c>
       <c r="D88">
-        <v>-0.001980132844119486</v>
+        <v>-0.01931763818535471</v>
       </c>
       <c r="E88">
-        <v>0.003229742468229002</v>
+        <v>0.01077253847097282</v>
       </c>
       <c r="F88">
-        <v>0.004881477929748756</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02662919185228246</v>
+      </c>
+      <c r="G88">
+        <v>-0.009001984282940245</v>
+      </c>
+      <c r="H88">
+        <v>-0.004447595202943633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.152901269144099</v>
+        <v>-0.2614042862390062</v>
       </c>
       <c r="C89">
-        <v>0.0683476422932324</v>
+        <v>-0.3444325041936322</v>
       </c>
       <c r="D89">
-        <v>-0.3725973734332803</v>
+        <v>0.01474567818653133</v>
       </c>
       <c r="E89">
-        <v>-0.01022293853210315</v>
+        <v>-0.01107444225970494</v>
       </c>
       <c r="F89">
-        <v>-0.03025669072169579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01249192543369954</v>
+      </c>
+      <c r="G89">
+        <v>-0.01790590100525305</v>
+      </c>
+      <c r="H89">
+        <v>0.0001108158587530165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09627109080142225</v>
+        <v>-0.219479700177022</v>
       </c>
       <c r="C90">
-        <v>0.06319109406927416</v>
+        <v>-0.3178851701471534</v>
       </c>
       <c r="D90">
-        <v>-0.3411128456360913</v>
+        <v>0.01567116607565658</v>
       </c>
       <c r="E90">
-        <v>-0.01929185718767142</v>
+        <v>-0.02528152975361272</v>
       </c>
       <c r="F90">
-        <v>0.03229936824301953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04190307688003474</v>
+      </c>
+      <c r="G90">
+        <v>6.302193905005067e-05</v>
+      </c>
+      <c r="H90">
+        <v>0.006415649025116494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2918061987974756</v>
+        <v>-0.1935609081525027</v>
       </c>
       <c r="C91">
-        <v>0.03683304828495689</v>
+        <v>0.1411972691476452</v>
       </c>
       <c r="D91">
-        <v>0.1330926903643288</v>
+        <v>0.02905135152530493</v>
       </c>
       <c r="E91">
-        <v>0.2125695066548174</v>
+        <v>0.06071011778028959</v>
       </c>
       <c r="F91">
-        <v>0.1189009146646963</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2206122378179881</v>
+      </c>
+      <c r="G91">
+        <v>-0.01968221077050386</v>
+      </c>
+      <c r="H91">
+        <v>-0.06192965090390964</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2187189627080748</v>
+        <v>-0.2382621702749709</v>
       </c>
       <c r="C92">
-        <v>0.07246114186464944</v>
+        <v>-0.2455126216751563</v>
       </c>
       <c r="D92">
-        <v>-0.3717426317763669</v>
+        <v>0.05736275383101919</v>
       </c>
       <c r="E92">
-        <v>0.08326661475001594</v>
+        <v>-0.03720393266530507</v>
       </c>
       <c r="F92">
-        <v>0.02845023708032766</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1230446549244676</v>
+      </c>
+      <c r="G92">
+        <v>-0.06594883028984634</v>
+      </c>
+      <c r="H92">
+        <v>-0.0283122526277695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1450783742459312</v>
+        <v>-0.2477527153235101</v>
       </c>
       <c r="C93">
-        <v>0.0898087679000024</v>
+        <v>-0.3059127704336829</v>
       </c>
       <c r="D93">
-        <v>-0.3920560247175782</v>
+        <v>0.0233098214030137</v>
       </c>
       <c r="E93">
-        <v>-0.05519980497586102</v>
+        <v>-0.03144331194251355</v>
       </c>
       <c r="F93">
-        <v>0.06722327758790496</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01930864783126773</v>
+      </c>
+      <c r="G93">
+        <v>0.01530831813765773</v>
+      </c>
+      <c r="H93">
+        <v>0.03112749179153999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3227957871155889</v>
+        <v>-0.2533730399764196</v>
       </c>
       <c r="C94">
-        <v>0.06739473287839072</v>
+        <v>0.172382022450045</v>
       </c>
       <c r="D94">
-        <v>0.08897008189575882</v>
+        <v>0.01737998146960199</v>
       </c>
       <c r="E94">
-        <v>0.2522255572155228</v>
+        <v>0.06995700486499991</v>
       </c>
       <c r="F94">
-        <v>0.0004045693105986868</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3438323696840356</v>
+      </c>
+      <c r="G94">
+        <v>0.01121989687507328</v>
+      </c>
+      <c r="H94">
+        <v>-0.279684990635801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05254171889192133</v>
+        <v>-0.06630873624531676</v>
       </c>
       <c r="C95">
-        <v>0.07377542084333363</v>
+        <v>0.1197727299514585</v>
       </c>
       <c r="D95">
-        <v>0.02374270837913715</v>
+        <v>0.009706673336834955</v>
       </c>
       <c r="E95">
-        <v>0.0362386081963031</v>
+        <v>-0.02075633615673124</v>
       </c>
       <c r="F95">
-        <v>-0.06186287434329877</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1010035485949013</v>
+      </c>
+      <c r="G95">
+        <v>0.06526560894583888</v>
+      </c>
+      <c r="H95">
+        <v>-0.02986578598794794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1919652793563939</v>
+        <v>-0.2151075323003216</v>
       </c>
       <c r="C98">
-        <v>0.06425850863514723</v>
+        <v>0.07540400278272708</v>
       </c>
       <c r="D98">
-        <v>-0.03115630875498514</v>
+        <v>0.0252198439785669</v>
       </c>
       <c r="E98">
-        <v>-0.1483904965342811</v>
+        <v>-0.01707172793732524</v>
       </c>
       <c r="F98">
-        <v>-0.1104841693413235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.246046964584266</v>
+      </c>
+      <c r="G98">
+        <v>0.08100594474554763</v>
+      </c>
+      <c r="H98">
+        <v>0.09666575210590794</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00510829381266682</v>
+        <v>-0.002741741313348915</v>
       </c>
       <c r="C101">
-        <v>-0.005131480651335904</v>
+        <v>0.01851230899331513</v>
       </c>
       <c r="D101">
-        <v>0.02647649842547535</v>
+        <v>-0.007450966703495258</v>
       </c>
       <c r="E101">
-        <v>-0.06705858934157556</v>
+        <v>-0.03027690448717644</v>
       </c>
       <c r="F101">
-        <v>-0.1868009093888808</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01497162346732799</v>
+      </c>
+      <c r="G101">
+        <v>-0.03725285393121292</v>
+      </c>
+      <c r="H101">
+        <v>-0.02270227017500209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1380496504948323</v>
+        <v>-0.1120785926262421</v>
       </c>
       <c r="C102">
-        <v>0.01499884695261933</v>
+        <v>0.0882177956777654</v>
       </c>
       <c r="D102">
-        <v>0.04797934609708582</v>
+        <v>0.002450217978703365</v>
       </c>
       <c r="E102">
-        <v>0.09794015797789898</v>
+        <v>0.04538406703755466</v>
       </c>
       <c r="F102">
-        <v>0.05463817401268332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0820657841144264</v>
+      </c>
+      <c r="G102">
+        <v>-0.000111044559982139</v>
+      </c>
+      <c r="H102">
+        <v>-0.02562098046813973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04161862340954345</v>
+        <v>-0.007933485497245339</v>
       </c>
       <c r="C103">
-        <v>-0.01392330934899119</v>
+        <v>0.008265111261311601</v>
       </c>
       <c r="D103">
-        <v>0.01802655700133722</v>
+        <v>0.0001138300836097738</v>
       </c>
       <c r="E103">
-        <v>0.0203335172709234</v>
+        <v>0.0004916087927616184</v>
       </c>
       <c r="F103">
-        <v>-0.003763031810798419</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01513539415444399</v>
+      </c>
+      <c r="G103">
+        <v>-0.01734023726850853</v>
+      </c>
+      <c r="H103">
+        <v>0.004429953303165882</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.06404417637052634</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.0446766295766876</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9837537068772616</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03695915864231871</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.008950663206061575</v>
+      </c>
+      <c r="G104">
+        <v>-0.03870388642691529</v>
+      </c>
+      <c r="H104">
+        <v>-0.1142756106202389</v>
       </c>
     </row>
   </sheetData>
